--- a/data/Subset1_WithDialogActs/Video Mosaic Grade 6 2 variables 17.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Video Mosaic Grade 6 2 variables 17.xlsx_with_dialog_acts.xlsx
@@ -726,12 +726,12 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -870,12 +870,12 @@
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1050,12 +1050,12 @@
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1266,12 +1266,12 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1302,12 +1302,12 @@
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1446,12 +1446,12 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2022,12 +2022,12 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2134,12 +2134,12 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2170,12 +2170,12 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
